--- a/ass1/New Microsoft Excel Worksheet.xlsx
+++ b/ass1/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\FIT5137_23s2\ass1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59153867-6962-4FD1-BA2D-B7D237A4E9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181CC7B1-39FD-4104-A44D-443B0090F9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>CE1</t>
   </si>
@@ -57,9 +57,6 @@
     <t>CENTER_OPENINGHOUR</t>
   </si>
   <si>
-    <t>AGE_GROUP_ID</t>
-  </si>
-  <si>
     <t>DIM_MONTH</t>
   </si>
   <si>
@@ -81,15 +78,6 @@
     <t>T2</t>
   </si>
   <si>
-    <t>TE14</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>TE7</t>
-  </si>
-  <si>
     <t>TYPEID</t>
   </si>
   <si>
@@ -102,7 +90,34 @@
     <t>INCIDENTS_COST</t>
   </si>
   <si>
-    <t>Fact_Incidents</t>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>TE10</t>
+  </si>
+  <si>
+    <t>TE11</t>
+  </si>
+  <si>
+    <t>AGE_GROUP_NAME</t>
+  </si>
+  <si>
+    <t>Kinder</t>
+  </si>
+  <si>
+    <t>Pre-Kinder</t>
   </si>
 </sst>
 </file>
@@ -154,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,75 +192,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,343 +499,436 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="20.23046875" customWidth="1"/>
-    <col min="5" max="5" width="32.3828125" customWidth="1"/>
-    <col min="7" max="7" width="18.15234375" customWidth="1"/>
-    <col min="8" max="8" width="18.3828125" customWidth="1"/>
+    <col min="1" max="3" width="9.23046875" style="1"/>
+    <col min="4" max="4" width="20.23046875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.3828125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" style="1"/>
+    <col min="7" max="7" width="18.15234375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3828125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.4609375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.84375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.61328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>200</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>3004</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>1800978429</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" ht="35.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>200</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3131</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1300168881</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>200</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>3068</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1800222543</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="J6" t="s">
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>116</v>
+      </c>
+      <c r="L5" s="2">
+        <v>7137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>106</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>103</v>
+      </c>
+      <c r="L7" s="2">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="22.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
+        <v>200</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3004</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1800978429</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L6" t="s">
+      <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>200</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3131</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1300168881</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6">
+        <v>200</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3068</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1800222543</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
         <v>10</v>
       </c>
-      <c r="M6" t="s">
+      <c r="L11" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="2">
+        <v>87</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2">
+        <v>116</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N6" t="s">
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2">
+        <v>10</v>
+      </c>
+      <c r="L18" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2">
+        <v>23</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="2">
+        <v>23</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="J7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="K24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>218</v>
+      </c>
+      <c r="L25" s="2">
+        <v>16147</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="2">
+        <v>169</v>
+      </c>
+      <c r="L26" s="2">
+        <v>11078</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" s="2">
+        <v>149</v>
+      </c>
+      <c r="L27" s="2">
+        <v>9256</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="K29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" ht="38.6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5">
-        <v>3</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="5">
-        <v>1</v>
-      </c>
-      <c r="P8" s="5">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>200</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3004</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1800978429</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="5">
-        <v>2</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="10:12" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="L30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>200</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3131</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1300168881</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>200</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3068</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1800222543</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="J15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="9"/>
-    </row>
-    <row r="16" spans="1:16" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="J16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="10:16" x14ac:dyDescent="0.4">
-      <c r="J17" s="6">
-        <v>3</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="6">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="10:16" x14ac:dyDescent="0.4">
-      <c r="J18" s="6">
-        <v>2</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="6">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6">
-        <v>31</v>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="2">
+        <v>314</v>
+      </c>
+      <c r="L31" s="2">
+        <v>21723</v>
+      </c>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.4">
+      <c r="J32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="2">
+        <v>222</v>
+      </c>
+      <c r="L32" s="2">
+        <v>14758</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
